--- a/data/templates/YYYYMMDD_GEPXXXXX.xlsx
+++ b/data/templates/YYYYMMDD_GEPXXXXX.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Target" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Guide" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="OffTargetInformation" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="GuideMismatches" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="AmpliconSelection" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="ExperimentLayout" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Plate" sheetId="7" state="visible" r:id="rId8"/>
@@ -28,219 +28,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
-  <si>
-    <t>geid</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>scientist</t>
-  </si>
-  <si>
-    <t>institute</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>group_leader</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>project_geid</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>assembly</t>
-  </si>
-  <si>
-    <t>gene_id</t>
-  </si>
-  <si>
-    <t>chromosome</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>strand</t>
-  </si>
-  <si>
-    <t>target_name</t>
-  </si>
-  <si>
-    <t>guide_sequence</t>
-  </si>
-  <si>
-    <t>pam_sequence</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>exon</t>
-  </si>
-  <si>
-    <t>nuclease</t>
-  </si>
-  <si>
-    <t>guide_name</t>
-  </si>
-  <si>
-    <t>is_off_target_coding_region</t>
-  </si>
-  <si>
-    <t>regions</t>
-  </si>
-  <si>
-    <t>mismatches</t>
-  </si>
-  <si>
-    <t>experiment_type</t>
-  </si>
-  <si>
-    <t>guide_location</t>
-  </si>
-  <si>
-    <t>guide_strand</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>amplicon_name</t>
-  </si>
-  <si>
-    <t>is_on_target</t>
-  </si>
-  <si>
-    <t>dna_feature</t>
-  </si>
-  <si>
-    <t>primer_geid</t>
-  </si>
-  <si>
-    <t>primer_sequence</t>
-  </si>
-  <si>
-    <t>primer_strand</t>
-  </si>
-  <si>
-    <t>primer_start</t>
-  </si>
-  <si>
-    <t>primer_end</t>
-  </si>
-  <si>
-    <t>well_position</t>
-  </si>
-  <si>
-    <t>cell_line_name</t>
-  </si>
-  <si>
-    <t>clone_name</t>
-  </si>
-  <si>
-    <t>replicate_group</t>
-  </si>
-  <si>
-    <t>is_control</t>
-  </si>
-  <si>
-    <t>content_type</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>experiment_layout_geid</t>
-  </si>
-  <si>
-    <t>dna_source</t>
-  </si>
-  <si>
-    <t>slxid</t>
-  </si>
-  <si>
-    <t>library_type</t>
-  </si>
-  <si>
-    <t>barcode_size</t>
-  </si>
-  <si>
-    <t>sequencing_barcode</t>
-  </si>
-  <si>
-    <t>sequencing_sample_name</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Results_guide</t>
-  </si>
-  <si>
-    <t>Results_clone</t>
-  </si>
-  <si>
-    <t>Results_indel</t>
-  </si>
-  <si>
-    <t>Results_aminoacid</t>
-  </si>
-  <si>
-    <t>Results_impactonprotein</t>
-  </si>
-  <si>
-    <t>Results_protein</t>
-  </si>
-  <si>
-    <t>Results_growthrate</t>
-  </si>
-  <si>
-    <t>Tracking_ID</t>
-  </si>
-  <si>
-    <t>STAT3</t>
-  </si>
-  <si>
-    <t>STAT3.1</t>
-  </si>
-  <si>
-    <t>which clones are delivered</t>
-  </si>
-  <si>
-    <t>e.g. frameshift. This could be a ‘notes’ field</t>
-  </si>
-  <si>
-    <t>ICW data</t>
-  </si>
-  <si>
-    <t>incucyte data, slope</t>
-  </si>
-  <si>
-    <t>linked to tab ‘Tracking’</t>
-  </si>
-  <si>
-    <t>STAT3.2</t>
-  </si>
-  <si>
-    <t>STAT3.3</t>
-  </si>
-  <si>
-    <t>STAT3.4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+  <si>
+    <t xml:space="preserve">geid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project_geid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gene_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guide_sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pam_sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guide_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_off_target_coding_region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mismatches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiment_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guide_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guide_strand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amplicon_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_on_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dna_feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primer_geid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primer_sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primer_strand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primer_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primer_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well_position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell_line_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clone_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replicate_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiment_layout_geid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plate_barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dna_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slxid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">library_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barcode_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequencing_barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequencing_sample_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results_guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results_clone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results_indel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results_aminoacid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results_impactonprotein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results_protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results_growthrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracking_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which clones are delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. frameshift. This could be a ‘notes’ field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICW data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incucyte data, slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked to tab ‘Tracking’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3.4</t>
   </si>
 </sst>
 </file>
@@ -248,13 +248,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -271,24 +272,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CC99"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -300,7 +290,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,7 +314,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -332,75 +321,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Untitled2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF99CC99"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -411,18 +339,18 @@
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.3265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,7 +382,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -469,17 +397,17 @@
   </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,7 +445,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -532,17 +460,17 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,7 +503,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -590,15 +518,15 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,7 +546,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -633,29 +561,29 @@
   </sheetPr>
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2091836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.9234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2091836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8622448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.9183673469388"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="14.8061224489796"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="31.6785714285714"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="31.7704081632653"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="14.8061224489796"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.2704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="31.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,7 +636,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -723,20 +651,20 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="20.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9489795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.10714285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,7 +699,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -784,18 +712,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73.08"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -803,16 +731,19 @@
         <v>44</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -827,23 +758,23 @@
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="13.5255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4489795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>38</v>
@@ -870,7 +801,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -885,22 +816,22 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.780612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.219387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3367346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,7 +913,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/data/templates/YYYYMMDD_GEPXXXXX.xlsx
+++ b/data/templates/YYYYMMDD_GEPXXXXX.xlsx
@@ -16,7 +16,6 @@
     <sheet name="ExperimentLayout" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Plate" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="SequencingLibrary" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Results" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t xml:space="preserve">geid</t>
   </si>
@@ -120,28 +119,34 @@
     <t xml:space="preserve">score</t>
   </si>
   <si>
-    <t xml:space="preserve">amplicon_name</t>
-  </si>
-  <si>
     <t xml:space="preserve">is_on_target</t>
   </si>
   <si>
     <t xml:space="preserve">dna_feature</t>
   </si>
   <si>
-    <t xml:space="preserve">primer_geid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primer_sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primer_strand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primer_start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primer_end</t>
+    <t xml:space="preserve">forward_primer_geid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward_primer_sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward_primer_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward_primer_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse_primer_geid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse_primer_sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse_primer_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse_primer_end</t>
   </si>
   <si>
     <t xml:space="preserve">well_position</t>
@@ -184,63 +189,6 @@
   </si>
   <si>
     <t xml:space="preserve">sequencing_sample_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results_guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results_clone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results_indel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results_aminoacid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results_impactonprotein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results_protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results_growthrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracking_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAT3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">which clones are delivered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e.g. frameshift. This could be a ‘notes’ field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICW data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incucyte data, slope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linked to tab ‘Tracking’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAT3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAT3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAT3.4</t>
   </si>
 </sst>
 </file>
@@ -339,7 +287,7 @@
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -348,7 +296,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.68"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.8"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
@@ -397,7 +345,7 @@
   </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -460,16 +408,16 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.62"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -518,14 +466,14 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -559,10 +507,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -572,18 +520,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="31.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="31.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,10 +556,10 @@
         <v>31</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>33</v>
@@ -630,6 +577,12 @@
         <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -651,7 +604,7 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -662,7 +615,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
@@ -675,25 +628,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +667,7 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -722,16 +675,16 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
@@ -758,8 +711,8 @@
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -774,140 +727,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/templates/YYYYMMDD_GEPXXXXX.xlsx
+++ b/data/templates/YYYYMMDD_GEPXXXXX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">scientist</t>
   </si>
   <si>
-    <t xml:space="preserve">institute</t>
+    <t xml:space="preserve">affiliation</t>
   </si>
   <si>
     <t xml:space="preserve">group</t>
@@ -101,10 +101,10 @@
     <t xml:space="preserve">is_off_target_coding_region</t>
   </si>
   <si>
-    <t xml:space="preserve">regions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mismatches</t>
+    <t xml:space="preserve">number_of_mismatches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_of_off_targets</t>
   </si>
   <si>
     <t xml:space="preserve">experiment_type</t>
@@ -155,6 +155,9 @@
     <t xml:space="preserve">cell_line_name</t>
   </si>
   <si>
+    <t xml:space="preserve">cell_pool</t>
+  </si>
+  <si>
     <t xml:space="preserve">clone_name</t>
   </si>
   <si>
@@ -180,9 +183,6 @@
   </si>
   <si>
     <t xml:space="preserve">library_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barcode_size</t>
   </si>
   <si>
     <t xml:space="preserve">sequencing_barcode</t>
@@ -288,7 +288,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,15 +466,17 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,10 +604,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -613,11 +615,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,16 +639,19 @@
         <v>42</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>44</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -681,10 +686,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
@@ -709,45 +714,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="0" t="s">
         <v>53</v>
       </c>
     </row>

--- a/data/templates/YYYYMMDD_GEPXXXXX.xlsx
+++ b/data/templates/YYYYMMDD_GEPXXXXX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t xml:space="preserve">geid</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">start_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project_type</t>
   </si>
   <si>
     <t xml:space="preserve">description</t>
@@ -285,10 +288,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -297,8 +300,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.68"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,6 +329,9 @@
       </c>
       <c r="H1" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -360,34 +367,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -423,25 +430,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -466,7 +473,7 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -481,16 +488,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -537,55 +544,55 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -624,34 +631,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -686,16 +693,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -732,25 +739,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
